--- a/metrics/R2/average & upto/Ceguera.xlsx
+++ b/metrics/R2/average & upto/Ceguera.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8186329205824082</v>
+        <v>0.7069204596381283</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8186329205824082</v>
+        <v>0.7069204596381283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8186329205824082</v>
+        <v>0.7069204596381283</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9822362966568677</v>
+        <v>0.9803851405685651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9821039941396642</v>
+        <v>0.9799805004699809</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9822233572535829</v>
+        <v>0.9806646361276525</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9743006958707804</v>
+        <v>0.9708322280692661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9743379962302755</v>
+        <v>0.9711396181151539</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9741002117089685</v>
+        <v>0.9710336758130302</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9580888974204923</v>
+        <v>0.964108751362686</v>
       </c>
       <c r="C5" t="n">
-        <v>0.959283230271059</v>
+        <v>0.964147308111529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9599025162409164</v>
+        <v>0.9664849404647762</v>
       </c>
     </row>
   </sheetData>
